--- a/DataDriven_UsingApachePOI/src/testData/TestData.xlsx
+++ b/DataDriven_UsingApachePOI/src/testData/TestData.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java Workplace\Selenium_Demos\src\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\letCodePOM\letCodePOM\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBCEFE9-ABBA-4F4A-92D8-4E3DAFD14FE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="STUDENT_DATA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -51,16 +50,17 @@
     <t>test@gmail.com</t>
   </si>
   <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>ad</t>
+    <t>adyar</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,20 +382,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.77734375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.44140625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.21875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -425,16 +425,19 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
+      <c r="D2">
+        <v>1234567890</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{3B974073-A526-4172-A276-291638F409A6}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
